--- a/Permacast/32760-1/test/to_add.xlsx
+++ b/Permacast/32760-1/test/to_add.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Permacast\32760-1\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B33E5FC0-2E8C-4B90-90CC-AAC9EC094D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A78E66-3DE2-4923-A75F-5AF25ABCEB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1245" windowWidth="28890" windowHeight="19515" xr2:uid="{B5CC445A-F72A-4805-9E22-77B4D23F5EEE}"/>
+    <workbookView xWindow="9360" yWindow="1410" windowWidth="28890" windowHeight="19515" xr2:uid="{B5CC445A-F72A-4805-9E22-77B4D23F5EEE}"/>
   </bookViews>
   <sheets>
     <sheet name="to_add" sheetId="1" r:id="rId1"/>
@@ -61,19 +61,19 @@
     <t>Tier 6</t>
   </si>
   <si>
-    <t>11670873-b4ad-44d5-bd8a-3950c179fcb9</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>07f2e959c2bd83210d2fd79ec4dc095e0fff66127ebe3945907446cc70afe5df</t>
-  </si>
-  <si>
     <t>checklist</t>
   </si>
   <si>
     <t>CHECKLIST 1</t>
+  </si>
+  <si>
+    <t>88832b79-2b09-487e-b76e-568bdb72af56</t>
+  </si>
+  <si>
+    <t>work-in-progress</t>
+  </si>
+  <si>
+    <t>918fe9b575b2a1318d47fdcbf303d414cbf7d0d7f9cabddbfcf306be08c5697f</t>
   </si>
 </sst>
 </file>
@@ -936,7 +936,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5473F4-D4F8-4059-8F60-01A9EB47217C}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -983,16 +985,16 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -1001,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
